--- a/Futquiz.xlsx
+++ b/Futquiz.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avict\Documents\VSCode\FutQuiz\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B77CFBF-3E19-4171-AD30-D12BAB9ADB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Zico está no top 5 artilheiros da Seleção Brasileira?</t>
   </si>
@@ -29,22 +38,58 @@
   </si>
   <si>
     <t>Brasil alcançou o pentacampeonato em 1994?</t>
+  </si>
+  <si>
+    <t>O Palmeiras é o time brasileiro com mais participações na libertadores?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Palmeiras é o clube brasileiro com mais títulos de libertadores? </t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo é o maior artilheiro da história da UEFA Champions League?</t>
+  </si>
+  <si>
+    <t>Flamengo é o maior campeão carioca?</t>
+  </si>
+  <si>
+    <t>A Seleção Brasileira ficou em terceiro lugar na Copa do Mundo de 2014, realizada no Brasil?</t>
+  </si>
+  <si>
+    <t>o Bahia já foi campeão brasileiro?</t>
+  </si>
+  <si>
+    <t>A Itália está classificada para a Copa do Mundo de 2022?</t>
+  </si>
+  <si>
+    <t>O Kaká foi a única pessoa a ganhar uma Bola de Ouro quando Messi e Cristiano Ronaldo estavam participando da premiação?</t>
+  </si>
+  <si>
+    <t>O maior público já registrado em um estádio de futebol brasileiro foi na final da Copa do Mundo de 1950, no Maracanã?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,36 +97,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -271,23 +324,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.5"/>
+    <col min="1" max="1" width="106.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -295,7 +353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -303,7 +361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -311,7 +369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -319,7 +377,86 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Futquiz.xlsx
+++ b/Futquiz.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avict\Documents\VSCode\FutQuiz\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B77CFBF-3E19-4171-AD30-D12BAB9ADB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Página1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Zico está no top 5 artilheiros da Seleção Brasileira?</t>
   </si>
@@ -65,31 +56,34 @@
   </si>
   <si>
     <t>O maior público já registrado em um estádio de futebol brasileiro foi na final da Copa do Mundo de 1950, no Maracanã?</t>
+  </si>
+  <si>
+    <t>México e Estados Unidos foram as duas seleções convidadas para disputar a Copa América de 2019?</t>
+  </si>
+  <si>
+    <t>Botafogo foi o primeiro clube considerado grande no Brasil, a ser rebaixado para a Série B do Campeonato Brasileiro?</t>
+  </si>
+  <si>
+    <t>River Plate Atualmente (Abril de 2022), é o clube argentino com mais participações na Libertadores?</t>
+  </si>
+  <si>
+    <t>A edição de 1985 foi a última edição em que a final do Brasileirão não teve nenhum time carioca nem paulista?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,44 +91,36 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -324,28 +310,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="106.5546875" bestFit="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="95.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -353,7 +334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -361,7 +342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -369,7 +350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -377,7 +358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -385,7 +366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -393,7 +374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -401,7 +382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -409,7 +390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -417,7 +398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -425,7 +406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -433,7 +414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -441,7 +422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -449,14 +430,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>